--- a/Cam8calib.xlsx
+++ b/Cam8calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB923AE7-DEF1-4420-BF56-05B70903C7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35899B18-68E5-4FBF-ADDD-2FADD628BFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13243" yWindow="4071" windowWidth="24686" windowHeight="13218" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34526" yWindow="2297" windowWidth="7774" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,20 +350,20 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:D108"/>
+      <selection sqref="A1:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>901.38099999999997</v>
+        <v>911.67399999999998</v>
       </c>
       <c r="B1" s="1">
-        <v>1013.265</v>
+        <v>1013.379</v>
       </c>
       <c r="C1" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,28 +372,28 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>926.10199999999998</v>
+        <v>932.81700000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1789.0150000000001</v>
+        <v>1793.086</v>
       </c>
       <c r="C2" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>920.01</v>
+        <v>927.91700000000003</v>
       </c>
       <c r="B3" s="1">
-        <v>1683.66</v>
+        <v>1697.569</v>
       </c>
       <c r="C3" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D3" s="1">
         <v>-14.03</v>
@@ -402,163 +402,163 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>915.27499999999998</v>
+        <v>923.12300000000005</v>
       </c>
       <c r="B4" s="1">
-        <v>1583.309</v>
+        <v>1596.3610000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D4" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>911.09299999999996</v>
+        <v>919.38</v>
       </c>
       <c r="B5" s="1">
-        <v>1485.6120000000001</v>
+        <v>1497.085</v>
       </c>
       <c r="C5" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>907.77700000000004</v>
+        <v>916.35</v>
       </c>
       <c r="B6" s="1">
-        <v>1388.0450000000001</v>
+        <v>1398.49</v>
       </c>
       <c r="C6" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>905.12300000000005</v>
+        <v>913.93399999999997</v>
       </c>
       <c r="B7" s="1">
-        <v>1294.019</v>
+        <v>1301.317</v>
       </c>
       <c r="C7" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>903.16800000000001</v>
+        <v>912.28300000000002</v>
       </c>
       <c r="B8" s="1">
-        <v>1198.433</v>
+        <v>1205.723</v>
       </c>
       <c r="C8" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.98</v>
+        <v>-4.03</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>901.98099999999999</v>
+        <v>911.27700000000004</v>
       </c>
       <c r="B9" s="1">
-        <v>1104.4860000000001</v>
+        <v>1109.0250000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>901.46299999999997</v>
+        <v>911.51599999999996</v>
       </c>
       <c r="B10" s="1">
-        <v>1010.393</v>
+        <v>1014.218</v>
       </c>
       <c r="C10" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>901.57799999999997</v>
+        <v>912.28399999999999</v>
       </c>
       <c r="B11" s="1">
-        <v>917.923</v>
+        <v>919.78899999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>902.11400000000003</v>
+        <v>913.64599999999996</v>
       </c>
       <c r="B12" s="1">
-        <v>824.98900000000003</v>
+        <v>824.91700000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D12" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>903.654</v>
+        <v>915.93399999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>730.61099999999999</v>
+        <v>729.23199999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D13" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>905.68399999999997</v>
+        <v>918.55100000000004</v>
       </c>
       <c r="B14" s="1">
-        <v>637.40899999999999</v>
+        <v>633.42200000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D14" s="1">
         <v>8.0299999999999994</v>
@@ -567,73 +567,73 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>908.58</v>
+        <v>922.31799999999998</v>
       </c>
       <c r="B15" s="1">
-        <v>540.90300000000002</v>
+        <v>537.22199999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D15" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>912.07399999999996</v>
+        <v>926.82100000000003</v>
       </c>
       <c r="B16" s="1">
-        <v>444.73700000000002</v>
+        <v>439.91500000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D16" s="1">
-        <v>12.05</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>915.86900000000003</v>
+        <v>931.92700000000002</v>
       </c>
       <c r="B17" s="1">
-        <v>348.27</v>
+        <v>341.303</v>
       </c>
       <c r="C17" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D17" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>920.59699999999998</v>
+        <v>937.83</v>
       </c>
       <c r="B18" s="1">
-        <v>248.809</v>
+        <v>240.39699999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>2505.6</v>
+        <v>2499.4</v>
       </c>
       <c r="D18" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>882.81299999999999</v>
+        <v>892.66899999999998</v>
       </c>
       <c r="B19" s="1">
-        <v>1013.015</v>
+        <v>1013.49</v>
       </c>
       <c r="C19" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,28 +642,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>906.79200000000003</v>
+        <v>913.14400000000001</v>
       </c>
       <c r="B20" s="1">
-        <v>1787.319</v>
+        <v>1792.1130000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>901</v>
+        <v>908.46699999999998</v>
       </c>
       <c r="B21" s="1">
-        <v>1682.826</v>
+        <v>1696.758</v>
       </c>
       <c r="C21" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D21" s="1">
         <v>-14.03</v>
@@ -672,238 +672,238 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>896.04100000000005</v>
+        <v>904.00599999999997</v>
       </c>
       <c r="B22" s="1">
-        <v>1581.2760000000001</v>
+        <v>1595.9110000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D22" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>892.21400000000006</v>
+        <v>900.36400000000003</v>
       </c>
       <c r="B23" s="1">
-        <v>1484.364</v>
+        <v>1497.3230000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D23" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>889</v>
+        <v>897.33</v>
       </c>
       <c r="B24" s="1">
-        <v>1386.7339999999999</v>
+        <v>1398.4259999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>886.59400000000005</v>
+        <v>894.94899999999996</v>
       </c>
       <c r="B25" s="1">
-        <v>1292.077</v>
+        <v>1301.6600000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>884.61900000000003</v>
+        <v>893.53599999999994</v>
       </c>
       <c r="B26" s="1">
-        <v>1197.998</v>
+        <v>1205.7139999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>883.34100000000001</v>
+        <v>892.452</v>
       </c>
       <c r="B27" s="1">
-        <v>1104.9059999999999</v>
+        <v>1109.502</v>
       </c>
       <c r="C27" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D27" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>882.77700000000004</v>
+        <v>892.62800000000004</v>
       </c>
       <c r="B28" s="1">
-        <v>1010.3390000000001</v>
+        <v>1015.792</v>
       </c>
       <c r="C28" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>882.86599999999999</v>
+        <v>893.17200000000003</v>
       </c>
       <c r="B29" s="1">
-        <v>917.79600000000005</v>
+        <v>920.05100000000004</v>
       </c>
       <c r="C29" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>883.553</v>
+        <v>894.67700000000002</v>
       </c>
       <c r="B30" s="1">
-        <v>825.25800000000004</v>
+        <v>825.46</v>
       </c>
       <c r="C30" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D30" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>884.85299999999995</v>
+        <v>896.93399999999997</v>
       </c>
       <c r="B31" s="1">
-        <v>730.38400000000001</v>
+        <v>730.06700000000001</v>
       </c>
       <c r="C31" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D31" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>886.72900000000004</v>
+        <v>899.80200000000002</v>
       </c>
       <c r="B32" s="1">
-        <v>637.58399999999995</v>
+        <v>634.39300000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0500000000000007</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>889.68899999999996</v>
+        <v>903.10400000000004</v>
       </c>
       <c r="B33" s="1">
-        <v>542.95299999999997</v>
+        <v>537.22400000000005</v>
       </c>
       <c r="C33" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D33" s="1">
-        <v>10.050000000000001</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>892.95299999999997</v>
+        <v>907.45799999999997</v>
       </c>
       <c r="B34" s="1">
-        <v>446.70299999999997</v>
+        <v>441.58100000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D34" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>896.76700000000005</v>
+        <v>912.50199999999995</v>
       </c>
       <c r="B35" s="1">
-        <v>348.423</v>
+        <v>342.63499999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D35" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>901.11699999999996</v>
+        <v>918.13099999999997</v>
       </c>
       <c r="B36" s="1">
-        <v>249.51499999999999</v>
+        <v>242.066</v>
       </c>
       <c r="C36" s="1">
-        <v>2605.3000000000002</v>
+        <v>2599.1</v>
       </c>
       <c r="D36" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>865.55200000000002</v>
+        <v>875.39300000000003</v>
       </c>
       <c r="B37" s="1">
-        <v>1013.003</v>
+        <v>1013.567</v>
       </c>
       <c r="C37" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,28 +912,28 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>888.697</v>
+        <v>895.05</v>
       </c>
       <c r="B38" s="1">
-        <v>1785.9680000000001</v>
+        <v>1791.79</v>
       </c>
       <c r="C38" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>883.33600000000001</v>
+        <v>890.49800000000005</v>
       </c>
       <c r="B39" s="1">
-        <v>1681.7370000000001</v>
+        <v>1696.3979999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D39" s="1">
         <v>-14.03</v>
@@ -942,238 +942,238 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>878.59699999999998</v>
+        <v>886.01700000000005</v>
       </c>
       <c r="B40" s="1">
-        <v>1581.6220000000001</v>
+        <v>1595.425</v>
       </c>
       <c r="C40" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D40" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>874.86400000000003</v>
+        <v>882.44600000000003</v>
       </c>
       <c r="B41" s="1">
-        <v>1483.5930000000001</v>
+        <v>1496.2329999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D41" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>871.64200000000005</v>
+        <v>879.58900000000006</v>
       </c>
       <c r="B42" s="1">
-        <v>1386.598</v>
+        <v>1398.16</v>
       </c>
       <c r="C42" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>868.98099999999999</v>
+        <v>877.32100000000003</v>
       </c>
       <c r="B43" s="1">
-        <v>1292.124</v>
+        <v>1301.4680000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>867.36599999999999</v>
+        <v>875.99800000000005</v>
       </c>
       <c r="B44" s="1">
-        <v>1198.0060000000001</v>
+        <v>1206.088</v>
       </c>
       <c r="C44" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>866.20600000000002</v>
+        <v>874.96699999999998</v>
       </c>
       <c r="B45" s="1">
-        <v>1105.2840000000001</v>
+        <v>1109.809</v>
       </c>
       <c r="C45" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D45" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>865.55</v>
+        <v>875.33699999999999</v>
       </c>
       <c r="B46" s="1">
-        <v>1010.307</v>
+        <v>1015.989</v>
       </c>
       <c r="C46" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D46" s="1">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>865.63599999999997</v>
+        <v>875.71699999999998</v>
       </c>
       <c r="B47" s="1">
-        <v>917.78700000000003</v>
+        <v>920.38</v>
       </c>
       <c r="C47" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>866.06500000000005</v>
+        <v>877.28399999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>825.13699999999994</v>
+        <v>825.87</v>
       </c>
       <c r="C48" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D48" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>867.48800000000006</v>
+        <v>879.16499999999996</v>
       </c>
       <c r="B49" s="1">
-        <v>731.14800000000002</v>
+        <v>730.81700000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D49" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>869.279</v>
+        <v>882.00099999999998</v>
       </c>
       <c r="B50" s="1">
-        <v>637.19299999999998</v>
+        <v>635.02300000000002</v>
       </c>
       <c r="C50" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>871.99699999999996</v>
+        <v>885.46</v>
       </c>
       <c r="B51" s="1">
-        <v>543.197</v>
+        <v>539.51800000000003</v>
       </c>
       <c r="C51" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D51" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>875.16300000000001</v>
+        <v>889.65599999999995</v>
       </c>
       <c r="B52" s="1">
-        <v>448.06099999999998</v>
+        <v>442.26100000000002</v>
       </c>
       <c r="C52" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D52" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>878.88800000000003</v>
+        <v>894.548</v>
       </c>
       <c r="B53" s="1">
-        <v>349.47300000000001</v>
+        <v>343.26</v>
       </c>
       <c r="C53" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D53" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>883.29200000000003</v>
+        <v>900.01599999999996</v>
       </c>
       <c r="B54" s="1">
-        <v>249.816</v>
+        <v>242.50899999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2705</v>
+        <v>2698.8</v>
       </c>
       <c r="D54" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>849.64200000000005</v>
+        <v>859.02499999999998</v>
       </c>
       <c r="B55" s="1">
-        <v>1013.066</v>
+        <v>1013.47</v>
       </c>
       <c r="C55" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,28 +1182,28 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>871.97299999999996</v>
+        <v>878.07</v>
       </c>
       <c r="B56" s="1">
-        <v>1784.3679999999999</v>
+        <v>1790.2370000000001</v>
       </c>
       <c r="C56" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>866.899</v>
+        <v>873.64200000000005</v>
       </c>
       <c r="B57" s="1">
-        <v>1680.6030000000001</v>
+        <v>1694.502</v>
       </c>
       <c r="C57" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D57" s="1">
         <v>-14.03</v>
@@ -1212,88 +1212,88 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>862.26700000000005</v>
+        <v>869.56600000000003</v>
       </c>
       <c r="B58" s="1">
-        <v>1580.55</v>
+        <v>1594.5</v>
       </c>
       <c r="C58" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D58" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>858.56799999999998</v>
+        <v>865.976</v>
       </c>
       <c r="B59" s="1">
-        <v>1482.8420000000001</v>
+        <v>1495.434</v>
       </c>
       <c r="C59" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D59" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>855.476</v>
+        <v>863.23699999999997</v>
       </c>
       <c r="B60" s="1">
-        <v>1385.91</v>
+        <v>1397.278</v>
       </c>
       <c r="C60" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>853</v>
+        <v>861.02</v>
       </c>
       <c r="B61" s="1">
-        <v>1291.9590000000001</v>
+        <v>1300.29</v>
       </c>
       <c r="C61" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>851.36699999999996</v>
+        <v>859.83100000000002</v>
       </c>
       <c r="B62" s="1">
-        <v>1197.3530000000001</v>
+        <v>1205.184</v>
       </c>
       <c r="C62" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>850.15499999999997</v>
+        <v>858.77300000000002</v>
       </c>
       <c r="B63" s="1">
-        <v>1104.915</v>
+        <v>1108.7829999999999</v>
       </c>
       <c r="C63" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D63" s="1">
         <v>-2</v>
@@ -1302,118 +1302,118 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>849.62900000000002</v>
+        <v>859.01</v>
       </c>
       <c r="B64" s="1">
-        <v>1010.1559999999999</v>
+        <v>1014.06</v>
       </c>
       <c r="C64" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>849.60699999999997</v>
+        <v>859.7</v>
       </c>
       <c r="B65" s="1">
-        <v>918.42600000000004</v>
+        <v>919.71600000000001</v>
       </c>
       <c r="C65" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>850.197</v>
+        <v>860.96400000000006</v>
       </c>
       <c r="B66" s="1">
-        <v>825.39400000000001</v>
+        <v>825.34</v>
       </c>
       <c r="C66" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D66" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>851.20399999999995</v>
+        <v>863.06700000000001</v>
       </c>
       <c r="B67" s="1">
-        <v>731.29200000000003</v>
+        <v>730.35500000000002</v>
       </c>
       <c r="C67" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>853.16600000000005</v>
+        <v>865.76199999999994</v>
       </c>
       <c r="B68" s="1">
-        <v>638.03899999999999</v>
+        <v>634.59400000000005</v>
       </c>
       <c r="C68" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>855.81700000000001</v>
+        <v>869.101</v>
       </c>
       <c r="B69" s="1">
-        <v>543.61</v>
+        <v>539.17200000000003</v>
       </c>
       <c r="C69" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D69" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>858.9</v>
+        <v>873.24199999999996</v>
       </c>
       <c r="B70" s="1">
-        <v>448.16</v>
+        <v>442.33600000000001</v>
       </c>
       <c r="C70" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D70" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>862.35199999999998</v>
+        <v>878.04</v>
       </c>
       <c r="B71" s="1">
-        <v>349.93299999999999</v>
+        <v>343.08100000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D71" s="1">
         <v>14.03</v>
@@ -1422,28 +1422,28 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>866.66300000000001</v>
+        <v>883.29</v>
       </c>
       <c r="B72" s="1">
-        <v>251.05099999999999</v>
+        <v>244.68299999999999</v>
       </c>
       <c r="C72" s="1">
-        <v>2804.7</v>
+        <v>2798.5</v>
       </c>
       <c r="D72" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>834.77800000000002</v>
+        <v>844.11099999999999</v>
       </c>
       <c r="B73" s="1">
-        <v>1013.0119999999999</v>
+        <v>1013.458</v>
       </c>
       <c r="C73" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,28 +1452,28 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>856.65899999999999</v>
+        <v>862.51</v>
       </c>
       <c r="B74" s="1">
-        <v>1783.9880000000001</v>
+        <v>1790.058</v>
       </c>
       <c r="C74" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>851.53</v>
+        <v>858.125</v>
       </c>
       <c r="B75" s="1">
-        <v>1679.6</v>
+        <v>1694.3720000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D75" s="1">
         <v>-14.03</v>
@@ -1482,208 +1482,208 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>846.99400000000003</v>
+        <v>854.07899999999995</v>
       </c>
       <c r="B76" s="1">
-        <v>1580.0709999999999</v>
+        <v>1593.942</v>
       </c>
       <c r="C76" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D76" s="1">
-        <v>-12</v>
+        <v>-12.03</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>843.46799999999996</v>
+        <v>850.61300000000006</v>
       </c>
       <c r="B77" s="1">
-        <v>1482.115</v>
+        <v>1495.624</v>
       </c>
       <c r="C77" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>840.47799999999995</v>
+        <v>848.08100000000002</v>
       </c>
       <c r="B78" s="1">
-        <v>1385.93</v>
+        <v>1397.1559999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>837.97799999999995</v>
+        <v>846.22699999999998</v>
       </c>
       <c r="B79" s="1">
-        <v>1290.5899999999999</v>
+        <v>1300.1769999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>836.39200000000005</v>
+        <v>844.64599999999996</v>
       </c>
       <c r="B80" s="1">
-        <v>1197.0250000000001</v>
+        <v>1205.4490000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.98</v>
+        <v>-4.03</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>835.25800000000004</v>
+        <v>843.79499999999996</v>
       </c>
       <c r="B81" s="1">
-        <v>1103.893</v>
+        <v>1109.1679999999999</v>
       </c>
       <c r="C81" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>834.76</v>
+        <v>844.16300000000001</v>
       </c>
       <c r="B82" s="1">
-        <v>1010.026</v>
+        <v>1014.285</v>
       </c>
       <c r="C82" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>834.76300000000003</v>
+        <v>844.55100000000004</v>
       </c>
       <c r="B83" s="1">
-        <v>918.56</v>
+        <v>920.71199999999999</v>
       </c>
       <c r="C83" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>835.27300000000002</v>
+        <v>845.85500000000002</v>
       </c>
       <c r="B84" s="1">
-        <v>825.87900000000002</v>
+        <v>825.94899999999996</v>
       </c>
       <c r="C84" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D84" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>836.33900000000006</v>
+        <v>847.92700000000002</v>
       </c>
       <c r="B85" s="1">
-        <v>731.43700000000001</v>
+        <v>730.88099999999997</v>
       </c>
       <c r="C85" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D85" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>838.30799999999999</v>
+        <v>850.78800000000001</v>
       </c>
       <c r="B86" s="1">
-        <v>638.33399999999995</v>
+        <v>635.54100000000005</v>
       </c>
       <c r="C86" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>840.75400000000002</v>
+        <v>853.83100000000002</v>
       </c>
       <c r="B87" s="1">
-        <v>544.16800000000001</v>
+        <v>540.12599999999998</v>
       </c>
       <c r="C87" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D87" s="1">
-        <v>10.050000000000001</v>
+        <v>10</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>843.80899999999997</v>
+        <v>857.76800000000003</v>
       </c>
       <c r="B88" s="1">
-        <v>449.22399999999999</v>
+        <v>442.64499999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D88" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>847.03700000000003</v>
+        <v>862.42600000000004</v>
       </c>
       <c r="B89" s="1">
-        <v>350.59500000000003</v>
+        <v>344.85399999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D89" s="1">
         <v>14.03</v>
@@ -1692,28 +1692,28 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>851.08199999999999</v>
+        <v>867.54200000000003</v>
       </c>
       <c r="B90" s="1">
-        <v>251.76</v>
+        <v>245.84700000000001</v>
       </c>
       <c r="C90" s="1">
-        <v>2904.4</v>
+        <v>2898.2</v>
       </c>
       <c r="D90" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>820.88599999999997</v>
+        <v>830.01300000000003</v>
       </c>
       <c r="B91" s="1">
-        <v>1013.053</v>
+        <v>1013.473</v>
       </c>
       <c r="C91" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1722,28 +1722,28 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>842.06399999999996</v>
+        <v>848.00099999999998</v>
       </c>
       <c r="B92" s="1">
-        <v>1782.836</v>
+        <v>1787.42</v>
       </c>
       <c r="C92" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D92" s="1">
-        <v>-16.079999999999998</v>
+        <v>-15.9</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>837.01</v>
+        <v>843.50599999999997</v>
       </c>
       <c r="B93" s="1">
-        <v>1679.1479999999999</v>
+        <v>1692.405</v>
       </c>
       <c r="C93" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D93" s="1">
         <v>-14.03</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>832.81899999999996</v>
+        <v>839.82</v>
       </c>
       <c r="B94" s="1">
-        <v>1578.471</v>
+        <v>1591.9190000000001</v>
       </c>
       <c r="C94" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D94" s="1">
         <v>-12</v>
@@ -1767,73 +1767,73 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>829.51300000000003</v>
+        <v>836.60299999999995</v>
       </c>
       <c r="B95" s="1">
-        <v>1482.2349999999999</v>
+        <v>1494.96</v>
       </c>
       <c r="C95" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D95" s="1">
-        <v>-10</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>826.47299999999996</v>
+        <v>833.995</v>
       </c>
       <c r="B96" s="1">
-        <v>1385.6369999999999</v>
+        <v>1397.0730000000001</v>
       </c>
       <c r="C96" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D96" s="1">
-        <v>-7.97</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>824.09500000000003</v>
+        <v>831.98900000000003</v>
       </c>
       <c r="B97" s="1">
-        <v>1291.2919999999999</v>
+        <v>1300.1969999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D97" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>822.553</v>
+        <v>830.52099999999996</v>
       </c>
       <c r="B98" s="1">
-        <v>1196.5889999999999</v>
+        <v>1204.8119999999999</v>
       </c>
       <c r="C98" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D98" s="1">
-        <v>-3.95</v>
+        <v>-4.03</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>821.548</v>
+        <v>829.87400000000002</v>
       </c>
       <c r="B99" s="1">
-        <v>1104.6469999999999</v>
+        <v>1109.1610000000001</v>
       </c>
       <c r="C99" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D99" s="1">
         <v>-2</v>
@@ -1842,136 +1842,136 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>820.87400000000002</v>
+        <v>829.98500000000001</v>
       </c>
       <c r="B100" s="1">
-        <v>1009.8390000000001</v>
+        <v>1013.973</v>
       </c>
       <c r="C100" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D100" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>820.95399999999995</v>
+        <v>830.64499999999998</v>
       </c>
       <c r="B101" s="1">
-        <v>917.66499999999996</v>
+        <v>920.32899999999995</v>
       </c>
       <c r="C101" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D101" s="1">
-        <v>2.0499999999999998</v>
+        <v>2</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>821.37900000000002</v>
+        <v>832.00900000000001</v>
       </c>
       <c r="B102" s="1">
-        <v>825.92100000000005</v>
+        <v>825.798</v>
       </c>
       <c r="C102" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D102" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>822.55200000000002</v>
+        <v>833.92600000000004</v>
       </c>
       <c r="B103" s="1">
-        <v>731.45500000000004</v>
+        <v>730.94799999999998</v>
       </c>
       <c r="C103" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D103" s="1">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>824.02099999999996</v>
+        <v>836.61400000000003</v>
       </c>
       <c r="B104" s="1">
-        <v>637.96400000000006</v>
+        <v>635.62</v>
       </c>
       <c r="C104" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D104" s="1">
-        <v>8.0500000000000007</v>
+        <v>8</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>826.68700000000001</v>
+        <v>839.86300000000006</v>
       </c>
       <c r="B105" s="1">
-        <v>544.29700000000003</v>
+        <v>539.22299999999996</v>
       </c>
       <c r="C105" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D105" s="1">
-        <v>10.050000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>829.49400000000003</v>
+        <v>843.74900000000002</v>
       </c>
       <c r="B106" s="1">
-        <v>449.20600000000002</v>
+        <v>443.30900000000003</v>
       </c>
       <c r="C106" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D106" s="1">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>832.755</v>
+        <v>848.00599999999997</v>
       </c>
       <c r="B107" s="1">
-        <v>351.37799999999999</v>
+        <v>345.18299999999999</v>
       </c>
       <c r="C107" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D107" s="1">
-        <v>14.03</v>
+        <v>14</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>836.55899999999997</v>
+        <v>853.27700000000004</v>
       </c>
       <c r="B108" s="1">
-        <v>251.721</v>
+        <v>245.06899999999999</v>
       </c>
       <c r="C108" s="1">
-        <v>3004</v>
+        <v>2997.8</v>
       </c>
       <c r="D108" s="1">
-        <v>16.02</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1"/>
     </row>

--- a/Cam8calib.xlsx
+++ b/Cam8calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35899B18-68E5-4FBF-ADDD-2FADD628BFA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699459B5-ED95-4FD2-8229-CECA2512AA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34526" yWindow="2297" windowWidth="7774" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="16191" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>911.67399999999998</v>
+        <v>911.27200000000005</v>
       </c>
       <c r="B1" s="1">
-        <v>1013.379</v>
+        <v>1013.4</v>
       </c>
       <c r="C1" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,88 +372,88 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>932.81700000000001</v>
+        <v>932.23500000000001</v>
       </c>
       <c r="B2" s="1">
-        <v>1793.086</v>
+        <v>1789.8409999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.9</v>
+        <v>-15.98</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>927.91700000000003</v>
+        <v>927.1</v>
       </c>
       <c r="B3" s="1">
-        <v>1697.569</v>
+        <v>1691.27</v>
       </c>
       <c r="C3" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>923.12300000000005</v>
+        <v>922.47299999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>1596.3610000000001</v>
+        <v>1590.145</v>
       </c>
       <c r="C4" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>919.38</v>
+        <v>918.82899999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>1497.085</v>
+        <v>1492.6859999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D5" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10.02</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>916.35</v>
+        <v>915.67399999999998</v>
       </c>
       <c r="B6" s="1">
-        <v>1398.49</v>
+        <v>1393.3340000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D6" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>913.93399999999997</v>
+        <v>913.51499999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>1301.317</v>
+        <v>1297.5</v>
       </c>
       <c r="C7" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D7" s="1">
         <v>-6</v>
@@ -462,43 +462,43 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>912.28300000000002</v>
+        <v>911.779</v>
       </c>
       <c r="B8" s="1">
-        <v>1205.723</v>
+        <v>1202.3589999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D8" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>911.27700000000004</v>
+        <v>911.149</v>
       </c>
       <c r="B9" s="1">
-        <v>1109.0250000000001</v>
+        <v>1106.799</v>
       </c>
       <c r="C9" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D9" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>911.51599999999996</v>
+        <v>911.25900000000001</v>
       </c>
       <c r="B10" s="1">
-        <v>1014.218</v>
+        <v>1013.276</v>
       </c>
       <c r="C10" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -507,28 +507,28 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>912.28399999999999</v>
+        <v>911.923</v>
       </c>
       <c r="B11" s="1">
-        <v>919.78899999999999</v>
+        <v>918.673</v>
       </c>
       <c r="C11" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>913.64599999999996</v>
+        <v>913.375</v>
       </c>
       <c r="B12" s="1">
-        <v>824.91700000000003</v>
+        <v>824.80100000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -537,28 +537,28 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>915.93399999999997</v>
+        <v>915.51099999999997</v>
       </c>
       <c r="B13" s="1">
-        <v>729.23199999999997</v>
+        <v>729.17200000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D13" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>918.55100000000004</v>
+        <v>918.38699999999994</v>
       </c>
       <c r="B14" s="1">
-        <v>633.42200000000003</v>
+        <v>634.904</v>
       </c>
       <c r="C14" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D14" s="1">
         <v>8.0299999999999994</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>922.31799999999998</v>
+        <v>922.05799999999999</v>
       </c>
       <c r="B15" s="1">
-        <v>537.22199999999998</v>
+        <v>539.20000000000005</v>
       </c>
       <c r="C15" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D15" s="1">
         <v>10</v>
@@ -582,43 +582,43 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>926.82100000000003</v>
+        <v>926.36900000000003</v>
       </c>
       <c r="B16" s="1">
-        <v>439.91500000000002</v>
+        <v>441.75299999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D16" s="1">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>931.92700000000002</v>
+        <v>931.41499999999996</v>
       </c>
       <c r="B17" s="1">
-        <v>341.303</v>
+        <v>343.99799999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D17" s="1">
-        <v>14</v>
+        <v>14.03</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>937.83</v>
+        <v>937.18899999999996</v>
       </c>
       <c r="B18" s="1">
-        <v>240.39699999999999</v>
+        <v>245.42</v>
       </c>
       <c r="C18" s="1">
-        <v>2499.4</v>
+        <v>2500.9</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>892.66899999999998</v>
+        <v>892.31299999999999</v>
       </c>
       <c r="B19" s="1">
-        <v>1013.49</v>
+        <v>1012.989</v>
       </c>
       <c r="C19" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,28 +642,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>913.14400000000001</v>
+        <v>912.65800000000002</v>
       </c>
       <c r="B20" s="1">
-        <v>1792.1130000000001</v>
+        <v>1789.4590000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>908.46699999999998</v>
+        <v>907.76599999999996</v>
       </c>
       <c r="B21" s="1">
-        <v>1696.758</v>
+        <v>1691.76</v>
       </c>
       <c r="C21" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D21" s="1">
         <v>-14.03</v>
@@ -672,28 +672,28 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>904.00599999999997</v>
+        <v>903.40599999999995</v>
       </c>
       <c r="B22" s="1">
-        <v>1595.9110000000001</v>
+        <v>1590.99</v>
       </c>
       <c r="C22" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>900.36400000000003</v>
+        <v>899.68399999999997</v>
       </c>
       <c r="B23" s="1">
-        <v>1497.3230000000001</v>
+        <v>1493.172</v>
       </c>
       <c r="C23" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D23" s="1">
         <v>-10.029999999999999</v>
@@ -702,28 +702,28 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>897.33</v>
+        <v>896.673</v>
       </c>
       <c r="B24" s="1">
-        <v>1398.4259999999999</v>
+        <v>1394.373</v>
       </c>
       <c r="C24" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D24" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>894.94899999999996</v>
+        <v>894.55899999999997</v>
       </c>
       <c r="B25" s="1">
-        <v>1301.6600000000001</v>
+        <v>1298.462</v>
       </c>
       <c r="C25" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D25" s="1">
         <v>-6</v>
@@ -732,73 +732,73 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>893.53599999999994</v>
+        <v>893.24900000000002</v>
       </c>
       <c r="B26" s="1">
-        <v>1205.7139999999999</v>
+        <v>1203.2149999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D26" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>892.452</v>
+        <v>892.18</v>
       </c>
       <c r="B27" s="1">
-        <v>1109.502</v>
+        <v>1108.0530000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.97</v>
+        <v>-1.98</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>892.62800000000004</v>
+        <v>892.35199999999998</v>
       </c>
       <c r="B28" s="1">
-        <v>1015.792</v>
+        <v>1014.202</v>
       </c>
       <c r="C28" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>893.17200000000003</v>
+        <v>892.97500000000002</v>
       </c>
       <c r="B29" s="1">
-        <v>920.05100000000004</v>
+        <v>919.78099999999995</v>
       </c>
       <c r="C29" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>894.67700000000002</v>
+        <v>894.38099999999997</v>
       </c>
       <c r="B30" s="1">
-        <v>825.46</v>
+        <v>825.38199999999995</v>
       </c>
       <c r="C30" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -807,88 +807,88 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>896.93399999999997</v>
+        <v>896.49400000000003</v>
       </c>
       <c r="B31" s="1">
-        <v>730.06700000000001</v>
+        <v>730.54899999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>899.80200000000002</v>
+        <v>899.37800000000004</v>
       </c>
       <c r="B32" s="1">
-        <v>634.39300000000003</v>
+        <v>636.59500000000003</v>
       </c>
       <c r="C32" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D32" s="1">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>903.10400000000004</v>
+        <v>902.74</v>
       </c>
       <c r="B33" s="1">
-        <v>537.22400000000005</v>
+        <v>541.15</v>
       </c>
       <c r="C33" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D33" s="1">
-        <v>10.029999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>907.45799999999997</v>
+        <v>907.03399999999999</v>
       </c>
       <c r="B34" s="1">
-        <v>441.58100000000002</v>
+        <v>444.94600000000003</v>
       </c>
       <c r="C34" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D34" s="1">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>912.50199999999995</v>
+        <v>912.07600000000002</v>
       </c>
       <c r="B35" s="1">
-        <v>342.63499999999999</v>
+        <v>347.22399999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D35" s="1">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>918.13099999999997</v>
+        <v>917.58799999999997</v>
       </c>
       <c r="B36" s="1">
-        <v>242.066</v>
+        <v>248.08</v>
       </c>
       <c r="C36" s="1">
-        <v>2599.1</v>
+        <v>2600.6</v>
       </c>
       <c r="D36" s="1">
         <v>16</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>875.39300000000003</v>
+        <v>875.00599999999997</v>
       </c>
       <c r="B37" s="1">
-        <v>1013.567</v>
+        <v>1013.048</v>
       </c>
       <c r="C37" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,88 +912,88 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>895.05</v>
+        <v>894.62800000000004</v>
       </c>
       <c r="B38" s="1">
-        <v>1791.79</v>
+        <v>1788.0160000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.9</v>
+        <v>-15.98</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>890.49800000000005</v>
+        <v>889.68899999999996</v>
       </c>
       <c r="B39" s="1">
-        <v>1696.3979999999999</v>
+        <v>1689.1020000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>886.01700000000005</v>
+        <v>885.47</v>
       </c>
       <c r="B40" s="1">
-        <v>1595.425</v>
+        <v>1588.749</v>
       </c>
       <c r="C40" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>882.44600000000003</v>
+        <v>881.91899999999998</v>
       </c>
       <c r="B41" s="1">
-        <v>1496.2329999999999</v>
+        <v>1491.221</v>
       </c>
       <c r="C41" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10.02</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>879.58900000000006</v>
+        <v>879.26099999999997</v>
       </c>
       <c r="B42" s="1">
-        <v>1398.16</v>
+        <v>1393.325</v>
       </c>
       <c r="C42" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D42" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>877.32100000000003</v>
+        <v>877.14099999999996</v>
       </c>
       <c r="B43" s="1">
-        <v>1301.4680000000001</v>
+        <v>1297.5840000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -1002,28 +1002,28 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>875.99800000000005</v>
+        <v>875.61500000000001</v>
       </c>
       <c r="B44" s="1">
-        <v>1206.088</v>
+        <v>1202.1410000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D44" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>874.96699999999998</v>
+        <v>874.85500000000002</v>
       </c>
       <c r="B45" s="1">
-        <v>1109.809</v>
+        <v>1107.443</v>
       </c>
       <c r="C45" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D45" s="1">
         <v>-1.97</v>
@@ -1032,43 +1032,43 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>875.33699999999999</v>
+        <v>875.01199999999994</v>
       </c>
       <c r="B46" s="1">
-        <v>1015.989</v>
+        <v>1013.37</v>
       </c>
       <c r="C46" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>875.71699999999998</v>
+        <v>875.70399999999995</v>
       </c>
       <c r="B47" s="1">
-        <v>920.38</v>
+        <v>918.99800000000005</v>
       </c>
       <c r="C47" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D47" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>877.28399999999999</v>
+        <v>877.00699999999995</v>
       </c>
       <c r="B48" s="1">
-        <v>825.87</v>
+        <v>825.09799999999996</v>
       </c>
       <c r="C48" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1077,28 +1077,28 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>879.16499999999996</v>
+        <v>879.08900000000006</v>
       </c>
       <c r="B49" s="1">
-        <v>730.81700000000001</v>
+        <v>730.46100000000001</v>
       </c>
       <c r="C49" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D49" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>882.00099999999998</v>
+        <v>881.69399999999996</v>
       </c>
       <c r="B50" s="1">
-        <v>635.02300000000002</v>
+        <v>636.29600000000005</v>
       </c>
       <c r="C50" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D50" s="1">
         <v>8.0299999999999994</v>
@@ -1107,13 +1107,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>885.46</v>
+        <v>885.28899999999999</v>
       </c>
       <c r="B51" s="1">
-        <v>539.51800000000003</v>
+        <v>540.47299999999996</v>
       </c>
       <c r="C51" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D51" s="1">
         <v>10</v>
@@ -1122,43 +1122,43 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>889.65599999999995</v>
+        <v>889.46500000000003</v>
       </c>
       <c r="B52" s="1">
-        <v>442.26100000000002</v>
+        <v>443.58600000000001</v>
       </c>
       <c r="C52" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D52" s="1">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>894.548</v>
+        <v>894.29399999999998</v>
       </c>
       <c r="B53" s="1">
-        <v>343.26</v>
+        <v>346.51400000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D53" s="1">
-        <v>14</v>
+        <v>14.03</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>900.01599999999996</v>
+        <v>899.69100000000003</v>
       </c>
       <c r="B54" s="1">
-        <v>242.50899999999999</v>
+        <v>246.672</v>
       </c>
       <c r="C54" s="1">
-        <v>2698.8</v>
+        <v>2700.3</v>
       </c>
       <c r="D54" s="1">
         <v>16</v>
@@ -1167,13 +1167,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>859.02499999999998</v>
+        <v>858.92399999999998</v>
       </c>
       <c r="B55" s="1">
-        <v>1013.47</v>
+        <v>1013.46</v>
       </c>
       <c r="C55" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,88 +1182,88 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>878.07</v>
+        <v>877.72</v>
       </c>
       <c r="B56" s="1">
-        <v>1790.2370000000001</v>
+        <v>1787.087</v>
       </c>
       <c r="C56" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.9</v>
+        <v>-15.98</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>873.64200000000005</v>
+        <v>873.12300000000005</v>
       </c>
       <c r="B57" s="1">
-        <v>1694.502</v>
+        <v>1689.08</v>
       </c>
       <c r="C57" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>869.56600000000003</v>
+        <v>868.99199999999996</v>
       </c>
       <c r="B58" s="1">
-        <v>1594.5</v>
+        <v>1588.1179999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D58" s="1">
-        <v>-12.03</v>
+        <v>-12</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>865.976</v>
+        <v>865.596</v>
       </c>
       <c r="B59" s="1">
-        <v>1495.434</v>
+        <v>1491.3330000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10.02</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>863.23699999999997</v>
+        <v>862.74099999999999</v>
       </c>
       <c r="B60" s="1">
-        <v>1397.278</v>
+        <v>1392.9069999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D60" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>861.02</v>
+        <v>860.90300000000002</v>
       </c>
       <c r="B61" s="1">
-        <v>1300.29</v>
+        <v>1297.1479999999999</v>
       </c>
       <c r="C61" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D61" s="1">
         <v>-6</v>
@@ -1272,43 +1272,43 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>859.83100000000002</v>
+        <v>859.505</v>
       </c>
       <c r="B62" s="1">
-        <v>1205.184</v>
+        <v>1202.575</v>
       </c>
       <c r="C62" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D62" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>858.77300000000002</v>
+        <v>858.79600000000005</v>
       </c>
       <c r="B63" s="1">
-        <v>1108.7829999999999</v>
+        <v>1107.548</v>
       </c>
       <c r="C63" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D63" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>859.01</v>
+        <v>858.87699999999995</v>
       </c>
       <c r="B64" s="1">
-        <v>1014.06</v>
+        <v>1013.403</v>
       </c>
       <c r="C64" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1317,28 +1317,28 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>859.7</v>
+        <v>859.46100000000001</v>
       </c>
       <c r="B65" s="1">
-        <v>919.71600000000001</v>
+        <v>918.99</v>
       </c>
       <c r="C65" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>860.96400000000006</v>
+        <v>860.90700000000004</v>
       </c>
       <c r="B66" s="1">
-        <v>825.34</v>
+        <v>826.46799999999996</v>
       </c>
       <c r="C66" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -1347,28 +1347,28 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>863.06700000000001</v>
+        <v>862.91099999999994</v>
       </c>
       <c r="B67" s="1">
-        <v>730.35500000000002</v>
+        <v>731.06500000000005</v>
       </c>
       <c r="C67" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>865.76199999999994</v>
+        <v>865.53599999999994</v>
       </c>
       <c r="B68" s="1">
-        <v>634.59400000000005</v>
+        <v>636.97</v>
       </c>
       <c r="C68" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D68" s="1">
         <v>8.0299999999999994</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>869.101</v>
+        <v>868.69100000000003</v>
       </c>
       <c r="B69" s="1">
-        <v>539.17200000000003</v>
+        <v>541.59699999999998</v>
       </c>
       <c r="C69" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D69" s="1">
         <v>10</v>
@@ -1392,28 +1392,28 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>873.24199999999996</v>
+        <v>873.02499999999998</v>
       </c>
       <c r="B70" s="1">
-        <v>442.33600000000001</v>
+        <v>444.267</v>
       </c>
       <c r="C70" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D70" s="1">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>878.04</v>
+        <v>877.654</v>
       </c>
       <c r="B71" s="1">
-        <v>343.08100000000002</v>
+        <v>346.69400000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D71" s="1">
         <v>14.03</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>883.29</v>
+        <v>882.94299999999998</v>
       </c>
       <c r="B72" s="1">
-        <v>244.68299999999999</v>
+        <v>248.196</v>
       </c>
       <c r="C72" s="1">
-        <v>2798.5</v>
+        <v>2800</v>
       </c>
       <c r="D72" s="1">
         <v>16</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>844.11099999999999</v>
+        <v>843.93200000000002</v>
       </c>
       <c r="B73" s="1">
-        <v>1013.458</v>
+        <v>1013.14</v>
       </c>
       <c r="C73" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,133 +1452,133 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>862.51</v>
+        <v>862.12900000000002</v>
       </c>
       <c r="B74" s="1">
-        <v>1790.058</v>
+        <v>1787.2439999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>858.125</v>
+        <v>857.55899999999997</v>
       </c>
       <c r="B75" s="1">
-        <v>1694.3720000000001</v>
+        <v>1688.9490000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>854.07899999999995</v>
+        <v>853.63900000000001</v>
       </c>
       <c r="B76" s="1">
-        <v>1593.942</v>
+        <v>1588.875</v>
       </c>
       <c r="C76" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.03</v>
+        <v>-12.02</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>850.61300000000006</v>
+        <v>850.42600000000004</v>
       </c>
       <c r="B77" s="1">
-        <v>1495.624</v>
+        <v>1489.8330000000001</v>
       </c>
       <c r="C77" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D77" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>848.08100000000002</v>
+        <v>847.73599999999999</v>
       </c>
       <c r="B78" s="1">
-        <v>1397.1559999999999</v>
+        <v>1393.2850000000001</v>
       </c>
       <c r="C78" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8.02</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>846.22699999999998</v>
+        <v>845.71299999999997</v>
       </c>
       <c r="B79" s="1">
-        <v>1300.1769999999999</v>
+        <v>1296.7239999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D79" s="1">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>844.64599999999996</v>
+        <v>844.37400000000002</v>
       </c>
       <c r="B80" s="1">
-        <v>1205.4490000000001</v>
+        <v>1202.9000000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D80" s="1">
-        <v>-4.03</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>843.79499999999996</v>
+        <v>843.84799999999996</v>
       </c>
       <c r="B81" s="1">
-        <v>1109.1679999999999</v>
+        <v>1107.491</v>
       </c>
       <c r="C81" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D81" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>844.16300000000001</v>
+        <v>843.98199999999997</v>
       </c>
       <c r="B82" s="1">
-        <v>1014.285</v>
+        <v>1013.784</v>
       </c>
       <c r="C82" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1587,28 +1587,28 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>844.55100000000004</v>
+        <v>844.39300000000003</v>
       </c>
       <c r="B83" s="1">
-        <v>920.71199999999999</v>
+        <v>919.80899999999997</v>
       </c>
       <c r="C83" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D83" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>845.85500000000002</v>
+        <v>845.93200000000002</v>
       </c>
       <c r="B84" s="1">
-        <v>825.94899999999996</v>
+        <v>826.71699999999998</v>
       </c>
       <c r="C84" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -1617,28 +1617,28 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>847.92700000000002</v>
+        <v>847.93899999999996</v>
       </c>
       <c r="B85" s="1">
-        <v>730.88099999999997</v>
+        <v>731.75800000000004</v>
       </c>
       <c r="C85" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D85" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>850.78800000000001</v>
+        <v>850.51499999999999</v>
       </c>
       <c r="B86" s="1">
-        <v>635.54100000000005</v>
+        <v>637.23900000000003</v>
       </c>
       <c r="C86" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D86" s="1">
         <v>8.0299999999999994</v>
@@ -1647,28 +1647,28 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>853.83100000000002</v>
+        <v>853.66800000000001</v>
       </c>
       <c r="B87" s="1">
-        <v>540.12599999999998</v>
+        <v>542.06299999999999</v>
       </c>
       <c r="C87" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D87" s="1">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>857.76800000000003</v>
+        <v>857.57100000000003</v>
       </c>
       <c r="B88" s="1">
-        <v>442.64499999999998</v>
+        <v>445.702</v>
       </c>
       <c r="C88" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D88" s="1">
         <v>12</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>862.42600000000004</v>
+        <v>862.23400000000004</v>
       </c>
       <c r="B89" s="1">
-        <v>344.85399999999998</v>
+        <v>348.14499999999998</v>
       </c>
       <c r="C89" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D89" s="1">
         <v>14.03</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>867.54200000000003</v>
+        <v>867.29100000000005</v>
       </c>
       <c r="B90" s="1">
-        <v>245.84700000000001</v>
+        <v>249.48699999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2898.2</v>
+        <v>2899.7</v>
       </c>
       <c r="D90" s="1">
         <v>16</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>830.01300000000003</v>
+        <v>829.91800000000001</v>
       </c>
       <c r="B91" s="1">
-        <v>1013.473</v>
+        <v>1013.244</v>
       </c>
       <c r="C91" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1722,193 +1722,193 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>848.00099999999998</v>
+        <v>847.43399999999997</v>
       </c>
       <c r="B92" s="1">
-        <v>1787.42</v>
+        <v>1785.557</v>
       </c>
       <c r="C92" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D92" s="1">
-        <v>-15.9</v>
+        <v>-15.95</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>843.50599999999997</v>
+        <v>843.279</v>
       </c>
       <c r="B93" s="1">
-        <v>1692.405</v>
+        <v>1688.047</v>
       </c>
       <c r="C93" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D93" s="1">
-        <v>-14.03</v>
+        <v>-14.02</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>839.82</v>
+        <v>839.32899999999995</v>
       </c>
       <c r="B94" s="1">
-        <v>1591.9190000000001</v>
+        <v>1588.15</v>
       </c>
       <c r="C94" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D94" s="1">
-        <v>-12</v>
+        <v>-12.02</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>836.60299999999995</v>
+        <v>836.24400000000003</v>
       </c>
       <c r="B95" s="1">
-        <v>1494.96</v>
+        <v>1489.617</v>
       </c>
       <c r="C95" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D95" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>833.995</v>
+        <v>833.66200000000003</v>
       </c>
       <c r="B96" s="1">
-        <v>1397.0730000000001</v>
+        <v>1392.9690000000001</v>
       </c>
       <c r="C96" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D96" s="1">
-        <v>-8.0299999999999994</v>
+        <v>-8.02</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>831.98900000000003</v>
+        <v>831.82799999999997</v>
       </c>
       <c r="B97" s="1">
-        <v>1300.1969999999999</v>
+        <v>1296.5709999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D97" s="1">
-        <v>-6</v>
+        <v>-5.97</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>830.52099999999996</v>
+        <v>830.32500000000005</v>
       </c>
       <c r="B98" s="1">
-        <v>1204.8119999999999</v>
+        <v>1202.4190000000001</v>
       </c>
       <c r="C98" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D98" s="1">
-        <v>-4.03</v>
+        <v>-4</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>829.87400000000002</v>
+        <v>829.83199999999999</v>
       </c>
       <c r="B99" s="1">
-        <v>1109.1610000000001</v>
+        <v>1108.3989999999999</v>
       </c>
       <c r="C99" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D99" s="1">
-        <v>-2</v>
+        <v>-1.97</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>829.98500000000001</v>
+        <v>829.97799999999995</v>
       </c>
       <c r="B100" s="1">
-        <v>1013.973</v>
+        <v>1014.62</v>
       </c>
       <c r="C100" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>830.64499999999998</v>
+        <v>830.53300000000002</v>
       </c>
       <c r="B101" s="1">
-        <v>920.32899999999995</v>
+        <v>920.19200000000001</v>
       </c>
       <c r="C101" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D101" s="1">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>832.00900000000001</v>
+        <v>831.89400000000001</v>
       </c>
       <c r="B102" s="1">
-        <v>825.798</v>
+        <v>826.154</v>
       </c>
       <c r="C102" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D102" s="1">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>833.92600000000004</v>
+        <v>833.81600000000003</v>
       </c>
       <c r="B103" s="1">
-        <v>730.94799999999998</v>
+        <v>733.43899999999996</v>
       </c>
       <c r="C103" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>836.61400000000003</v>
+        <v>836.24199999999996</v>
       </c>
       <c r="B104" s="1">
-        <v>635.62</v>
+        <v>638.76700000000005</v>
       </c>
       <c r="C104" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D104" s="1">
         <v>8</v>
@@ -1917,28 +1917,28 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>839.86300000000006</v>
+        <v>839.46100000000001</v>
       </c>
       <c r="B105" s="1">
-        <v>539.22299999999996</v>
+        <v>542.54899999999998</v>
       </c>
       <c r="C105" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D105" s="1">
-        <v>10.02</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>843.74900000000002</v>
+        <v>843.43399999999997</v>
       </c>
       <c r="B106" s="1">
-        <v>443.30900000000003</v>
+        <v>446.49700000000001</v>
       </c>
       <c r="C106" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D106" s="1">
         <v>12</v>
@@ -1947,31 +1947,31 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>848.00599999999997</v>
+        <v>847.697</v>
       </c>
       <c r="B107" s="1">
-        <v>345.18299999999999</v>
+        <v>348.61500000000001</v>
       </c>
       <c r="C107" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D107" s="1">
-        <v>14</v>
+        <v>14.03</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>853.27700000000004</v>
+        <v>852.85799999999995</v>
       </c>
       <c r="B108" s="1">
-        <v>245.06899999999999</v>
+        <v>249.83099999999999</v>
       </c>
       <c r="C108" s="1">
-        <v>2997.8</v>
+        <v>2999.3</v>
       </c>
       <c r="D108" s="1">
-        <v>16</v>
+        <v>16.03</v>
       </c>
       <c r="E108" s="1"/>
     </row>

--- a/Cam8calib.xlsx
+++ b/Cam8calib.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699459B5-ED95-4FD2-8229-CECA2512AA8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BA62FE-591A-4236-A387-4769003C12E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="16191" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="566" yWindow="7954" windowWidth="16191" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>911.27200000000005</v>
+        <v>857.46600000000001</v>
       </c>
       <c r="B1" s="1">
-        <v>1013.4</v>
+        <v>1013.296</v>
       </c>
       <c r="C1" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,43 +372,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>932.23500000000001</v>
+        <v>888.40300000000002</v>
       </c>
       <c r="B2" s="1">
-        <v>1789.8409999999999</v>
+        <v>1795.4259999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D2" s="1">
-        <v>-15.98</v>
+        <v>-15.93</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>927.1</v>
+        <v>882.31200000000001</v>
       </c>
       <c r="B3" s="1">
-        <v>1691.27</v>
+        <v>1697.0450000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.02</v>
+        <v>-14.05</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>922.47299999999996</v>
+        <v>876.88099999999997</v>
       </c>
       <c r="B4" s="1">
-        <v>1590.145</v>
+        <v>1594.4549999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D4" s="1">
         <v>-12</v>
@@ -417,28 +417,28 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>918.82899999999995</v>
+        <v>871.84699999999998</v>
       </c>
       <c r="B5" s="1">
-        <v>1492.6859999999999</v>
+        <v>1496.2429999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D5" s="1">
-        <v>-10.02</v>
+        <v>-10</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>915.67399999999998</v>
+        <v>867.77300000000002</v>
       </c>
       <c r="B6" s="1">
-        <v>1393.3340000000001</v>
+        <v>1399.039</v>
       </c>
       <c r="C6" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D6" s="1">
         <v>-8</v>
@@ -447,13 +447,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>913.51499999999999</v>
+        <v>864.20299999999997</v>
       </c>
       <c r="B7" s="1">
-        <v>1297.5</v>
+        <v>1302.0740000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D7" s="1">
         <v>-6</v>
@@ -462,178 +462,178 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>911.779</v>
+        <v>861.5</v>
       </c>
       <c r="B8" s="1">
-        <v>1202.3589999999999</v>
+        <v>1205.6600000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-4</v>
+        <v>-4.03</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>911.149</v>
+        <v>859.09</v>
       </c>
       <c r="B9" s="1">
-        <v>1106.799</v>
+        <v>1109.4870000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>911.25900000000001</v>
+        <v>857.44299999999998</v>
       </c>
       <c r="B10" s="1">
-        <v>1013.276</v>
+        <v>1013.551</v>
       </c>
       <c r="C10" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>911.923</v>
+        <v>856.53700000000003</v>
       </c>
       <c r="B11" s="1">
-        <v>918.673</v>
+        <v>918.98400000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>913.375</v>
+        <v>856.19799999999998</v>
       </c>
       <c r="B12" s="1">
-        <v>824.80100000000004</v>
+        <v>823.02599999999995</v>
       </c>
       <c r="C12" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>915.51099999999997</v>
+        <v>856.48900000000003</v>
       </c>
       <c r="B13" s="1">
-        <v>729.17200000000003</v>
+        <v>726.28700000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D13" s="1">
-        <v>6.03</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>918.38699999999994</v>
+        <v>857.49</v>
       </c>
       <c r="B14" s="1">
-        <v>634.904</v>
+        <v>628.77300000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0299999999999994</v>
+        <v>7.98</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>922.05799999999999</v>
+        <v>859.20899999999995</v>
       </c>
       <c r="B15" s="1">
-        <v>539.20000000000005</v>
+        <v>530.33500000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>926.36900000000003</v>
+        <v>861.36</v>
       </c>
       <c r="B16" s="1">
-        <v>441.75299999999999</v>
+        <v>430.26</v>
       </c>
       <c r="C16" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D16" s="1">
-        <v>12.03</v>
+        <v>11.95</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>931.41499999999996</v>
+        <v>863.98599999999999</v>
       </c>
       <c r="B17" s="1">
-        <v>343.99799999999999</v>
+        <v>327.12400000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D17" s="1">
-        <v>14.03</v>
+        <v>13.98</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>937.18899999999996</v>
+        <v>867.37</v>
       </c>
       <c r="B18" s="1">
-        <v>245.42</v>
+        <v>223.99100000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2500.9</v>
+        <v>2501.4</v>
       </c>
       <c r="D18" s="1">
-        <v>16</v>
+        <v>15.98</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>892.31299999999999</v>
+        <v>838.66700000000003</v>
       </c>
       <c r="B19" s="1">
-        <v>1012.989</v>
+        <v>1013.521</v>
       </c>
       <c r="C19" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,43 +642,43 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>912.65800000000002</v>
+        <v>868.72799999999995</v>
       </c>
       <c r="B20" s="1">
-        <v>1789.4590000000001</v>
+        <v>1794.441</v>
       </c>
       <c r="C20" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>907.76599999999996</v>
+        <v>862.97900000000004</v>
       </c>
       <c r="B21" s="1">
-        <v>1691.76</v>
+        <v>1696.546</v>
       </c>
       <c r="C21" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.03</v>
+        <v>-14.05</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>903.40599999999995</v>
+        <v>857.43200000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>1590.99</v>
+        <v>1594.3420000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D22" s="1">
         <v>-12</v>
@@ -687,43 +687,43 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>899.68399999999997</v>
+        <v>852.77099999999996</v>
       </c>
       <c r="B23" s="1">
-        <v>1493.172</v>
+        <v>1496.1310000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D23" s="1">
-        <v>-10.029999999999999</v>
+        <v>-10</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>896.673</v>
+        <v>848.92899999999997</v>
       </c>
       <c r="B24" s="1">
-        <v>1394.373</v>
+        <v>1398.5139999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D24" s="1">
-        <v>-8</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>894.55899999999997</v>
+        <v>845.12400000000002</v>
       </c>
       <c r="B25" s="1">
-        <v>1298.462</v>
+        <v>1300.348</v>
       </c>
       <c r="C25" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D25" s="1">
         <v>-6</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>893.24900000000002</v>
+        <v>842.48</v>
       </c>
       <c r="B26" s="1">
-        <v>1203.2149999999999</v>
+        <v>1204.3040000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D26" s="1">
         <v>-4</v>
@@ -747,28 +747,28 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>892.18</v>
+        <v>840.37199999999996</v>
       </c>
       <c r="B27" s="1">
-        <v>1108.0530000000001</v>
+        <v>1109.001</v>
       </c>
       <c r="C27" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.98</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>892.35199999999998</v>
+        <v>838.58299999999997</v>
       </c>
       <c r="B28" s="1">
-        <v>1014.202</v>
+        <v>1012.861</v>
       </c>
       <c r="C28" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -777,28 +777,28 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>892.97500000000002</v>
+        <v>837.577</v>
       </c>
       <c r="B29" s="1">
-        <v>919.78099999999995</v>
+        <v>917.75199999999995</v>
       </c>
       <c r="C29" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D29" s="1">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>894.38099999999997</v>
+        <v>837.16499999999996</v>
       </c>
       <c r="B30" s="1">
-        <v>825.38199999999995</v>
+        <v>821.82</v>
       </c>
       <c r="C30" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -807,103 +807,103 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>896.49400000000003</v>
+        <v>837.52599999999995</v>
       </c>
       <c r="B31" s="1">
-        <v>730.54899999999998</v>
+        <v>725.71199999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D31" s="1">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>899.37800000000004</v>
+        <v>838.43</v>
       </c>
       <c r="B32" s="1">
-        <v>636.59500000000003</v>
+        <v>627.673</v>
       </c>
       <c r="C32" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D32" s="1">
-        <v>8.02</v>
+        <v>7.97</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>902.74</v>
+        <v>839.78399999999999</v>
       </c>
       <c r="B33" s="1">
-        <v>541.15</v>
+        <v>528.12800000000004</v>
       </c>
       <c r="C33" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D33" s="1">
-        <v>10.02</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>907.03399999999999</v>
+        <v>841.99400000000003</v>
       </c>
       <c r="B34" s="1">
-        <v>444.94600000000003</v>
+        <v>428.90699999999998</v>
       </c>
       <c r="C34" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D34" s="1">
-        <v>12.02</v>
+        <v>11.97</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>912.07600000000002</v>
+        <v>844.56500000000005</v>
       </c>
       <c r="B35" s="1">
-        <v>347.22399999999999</v>
+        <v>327.411</v>
       </c>
       <c r="C35" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D35" s="1">
-        <v>14.02</v>
+        <v>13.97</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>917.58799999999997</v>
+        <v>847.87599999999998</v>
       </c>
       <c r="B36" s="1">
-        <v>248.08</v>
+        <v>224.52600000000001</v>
       </c>
       <c r="C36" s="1">
-        <v>2600.6</v>
+        <v>2601.1</v>
       </c>
       <c r="D36" s="1">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>875.00599999999997</v>
+        <v>821.06399999999996</v>
       </c>
       <c r="B37" s="1">
-        <v>1013.048</v>
+        <v>1012.9880000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,43 +912,43 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>894.62800000000004</v>
+        <v>850.423</v>
       </c>
       <c r="B38" s="1">
-        <v>1788.0160000000001</v>
+        <v>1793.2270000000001</v>
       </c>
       <c r="C38" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.98</v>
+        <v>-15.93</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>889.68899999999996</v>
+        <v>844.93799999999999</v>
       </c>
       <c r="B39" s="1">
-        <v>1689.1020000000001</v>
+        <v>1696.1179999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.02</v>
+        <v>-14.05</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>885.47</v>
+        <v>839.53700000000003</v>
       </c>
       <c r="B40" s="1">
-        <v>1588.749</v>
+        <v>1593.3389999999999</v>
       </c>
       <c r="C40" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D40" s="1">
         <v>-12</v>
@@ -957,43 +957,43 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>881.91899999999998</v>
+        <v>834.95899999999995</v>
       </c>
       <c r="B41" s="1">
-        <v>1491.221</v>
+        <v>1494.779</v>
       </c>
       <c r="C41" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D41" s="1">
-        <v>-10.02</v>
+        <v>-10</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>879.26099999999997</v>
+        <v>831.01499999999999</v>
       </c>
       <c r="B42" s="1">
-        <v>1393.325</v>
+        <v>1397.7950000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D42" s="1">
-        <v>-8</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>877.14099999999996</v>
+        <v>827.505</v>
       </c>
       <c r="B43" s="1">
-        <v>1297.5840000000001</v>
+        <v>1299.886</v>
       </c>
       <c r="C43" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D43" s="1">
         <v>-6</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>875.61500000000001</v>
+        <v>824.72699999999998</v>
       </c>
       <c r="B44" s="1">
-        <v>1202.1410000000001</v>
+        <v>1204.0039999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D44" s="1">
         <v>-4</v>
@@ -1017,28 +1017,28 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>874.85500000000002</v>
+        <v>822.54200000000003</v>
       </c>
       <c r="B45" s="1">
-        <v>1107.443</v>
+        <v>1108.279</v>
       </c>
       <c r="C45" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>875.01199999999994</v>
+        <v>821.029</v>
       </c>
       <c r="B46" s="1">
-        <v>1013.37</v>
+        <v>1012.928</v>
       </c>
       <c r="C46" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>875.70399999999995</v>
+        <v>819.97299999999996</v>
       </c>
       <c r="B47" s="1">
-        <v>918.99800000000005</v>
+        <v>917.66600000000005</v>
       </c>
       <c r="C47" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D47" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>877.00699999999995</v>
+        <v>819.63499999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>825.09799999999996</v>
+        <v>821.81799999999998</v>
       </c>
       <c r="C48" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D48" s="1">
         <v>4</v>
@@ -1077,103 +1077,103 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>879.08900000000006</v>
+        <v>819.99</v>
       </c>
       <c r="B49" s="1">
-        <v>730.46100000000001</v>
+        <v>725.81</v>
       </c>
       <c r="C49" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D49" s="1">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>881.69399999999996</v>
+        <v>820.60599999999999</v>
       </c>
       <c r="B50" s="1">
-        <v>636.29600000000005</v>
+        <v>628.221</v>
       </c>
       <c r="C50" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>885.28899999999999</v>
+        <v>822.13699999999994</v>
       </c>
       <c r="B51" s="1">
-        <v>540.47299999999996</v>
+        <v>530.33199999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>889.46500000000003</v>
+        <v>823.98400000000004</v>
       </c>
       <c r="B52" s="1">
-        <v>443.58600000000001</v>
+        <v>431.12</v>
       </c>
       <c r="C52" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D52" s="1">
-        <v>12.03</v>
+        <v>11.95</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>894.29399999999998</v>
+        <v>826.5</v>
       </c>
       <c r="B53" s="1">
-        <v>346.51400000000001</v>
+        <v>328.02600000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D53" s="1">
-        <v>14.03</v>
+        <v>13.97</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>899.69100000000003</v>
+        <v>829.678</v>
       </c>
       <c r="B54" s="1">
-        <v>246.672</v>
+        <v>225.21700000000001</v>
       </c>
       <c r="C54" s="1">
-        <v>2700.3</v>
+        <v>2700.8</v>
       </c>
       <c r="D54" s="1">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>858.92399999999998</v>
+        <v>804.92200000000003</v>
       </c>
       <c r="B55" s="1">
-        <v>1013.46</v>
+        <v>1013.499</v>
       </c>
       <c r="C55" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,43 +1182,43 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>877.72</v>
+        <v>833.70500000000004</v>
       </c>
       <c r="B56" s="1">
-        <v>1787.087</v>
+        <v>1792.989</v>
       </c>
       <c r="C56" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.98</v>
+        <v>-15.93</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>873.12300000000005</v>
+        <v>828.35500000000002</v>
       </c>
       <c r="B57" s="1">
-        <v>1689.08</v>
+        <v>1696.2360000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.02</v>
+        <v>-14.03</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>868.99199999999996</v>
+        <v>823.11</v>
       </c>
       <c r="B58" s="1">
-        <v>1588.1179999999999</v>
+        <v>1594.5219999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D58" s="1">
         <v>-12</v>
@@ -1227,28 +1227,28 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>865.596</v>
+        <v>818.73400000000004</v>
       </c>
       <c r="B59" s="1">
-        <v>1491.3330000000001</v>
+        <v>1496.2139999999999</v>
       </c>
       <c r="C59" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.02</v>
+        <v>-10.029999999999999</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>862.74099999999999</v>
+        <v>814.78200000000004</v>
       </c>
       <c r="B60" s="1">
-        <v>1392.9069999999999</v>
+        <v>1398.1510000000001</v>
       </c>
       <c r="C60" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D60" s="1">
         <v>-8</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>860.90300000000002</v>
+        <v>811.46</v>
       </c>
       <c r="B61" s="1">
-        <v>1297.1479999999999</v>
+        <v>1301.5260000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D61" s="1">
         <v>-6</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>859.505</v>
+        <v>808.57500000000005</v>
       </c>
       <c r="B62" s="1">
-        <v>1202.575</v>
+        <v>1205.5229999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D62" s="1">
         <v>-4</v>
@@ -1287,28 +1287,28 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>858.79600000000005</v>
+        <v>806.46199999999999</v>
       </c>
       <c r="B63" s="1">
-        <v>1107.548</v>
+        <v>1110.519</v>
       </c>
       <c r="C63" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>858.87699999999995</v>
+        <v>804.89</v>
       </c>
       <c r="B64" s="1">
-        <v>1013.403</v>
+        <v>1014.437</v>
       </c>
       <c r="C64" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -1317,28 +1317,28 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>859.46100000000001</v>
+        <v>803.86800000000005</v>
       </c>
       <c r="B65" s="1">
-        <v>918.99</v>
+        <v>919.93899999999996</v>
       </c>
       <c r="C65" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>860.90700000000004</v>
+        <v>803.40300000000002</v>
       </c>
       <c r="B66" s="1">
-        <v>826.46799999999996</v>
+        <v>823.87599999999998</v>
       </c>
       <c r="C66" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D66" s="1">
         <v>4</v>
@@ -1347,103 +1347,103 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>862.91099999999994</v>
+        <v>803.79700000000003</v>
       </c>
       <c r="B67" s="1">
-        <v>731.06500000000005</v>
+        <v>728.37</v>
       </c>
       <c r="C67" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D67" s="1">
-        <v>6.03</v>
+        <v>5.98</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>865.53599999999994</v>
+        <v>804.37800000000004</v>
       </c>
       <c r="B68" s="1">
-        <v>636.97</v>
+        <v>630.10199999999998</v>
       </c>
       <c r="C68" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0299999999999994</v>
+        <v>7.98</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>868.69100000000003</v>
+        <v>805.77300000000002</v>
       </c>
       <c r="B69" s="1">
-        <v>541.59699999999998</v>
+        <v>531.75</v>
       </c>
       <c r="C69" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D69" s="1">
-        <v>10</v>
+        <v>9.98</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>873.02499999999998</v>
+        <v>807.49199999999996</v>
       </c>
       <c r="B70" s="1">
-        <v>444.267</v>
+        <v>432.863</v>
       </c>
       <c r="C70" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D70" s="1">
-        <v>12.03</v>
+        <v>11.98</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>877.654</v>
+        <v>809.59699999999998</v>
       </c>
       <c r="B71" s="1">
-        <v>346.69400000000002</v>
+        <v>331.05700000000002</v>
       </c>
       <c r="C71" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D71" s="1">
-        <v>14.03</v>
+        <v>13.98</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>882.94299999999998</v>
+        <v>812.452</v>
       </c>
       <c r="B72" s="1">
-        <v>248.196</v>
+        <v>228.547</v>
       </c>
       <c r="C72" s="1">
-        <v>2800</v>
+        <v>2800.5</v>
       </c>
       <c r="D72" s="1">
-        <v>16</v>
+        <v>15.98</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>843.93200000000002</v>
+        <v>789.82600000000002</v>
       </c>
       <c r="B73" s="1">
-        <v>1013.14</v>
+        <v>1013.538</v>
       </c>
       <c r="C73" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,58 +1452,58 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>862.12900000000002</v>
+        <v>818.08500000000004</v>
       </c>
       <c r="B74" s="1">
-        <v>1787.2439999999999</v>
+        <v>1791.787</v>
       </c>
       <c r="C74" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.95</v>
+        <v>-15.93</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>857.55899999999997</v>
+        <v>812.67700000000002</v>
       </c>
       <c r="B75" s="1">
-        <v>1688.9490000000001</v>
+        <v>1694.35</v>
       </c>
       <c r="C75" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.02</v>
+        <v>-14.05</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>853.63900000000001</v>
+        <v>807.57500000000005</v>
       </c>
       <c r="B76" s="1">
-        <v>1588.875</v>
+        <v>1592.6379999999999</v>
       </c>
       <c r="C76" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.02</v>
+        <v>-12</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>850.42600000000004</v>
+        <v>803.15200000000004</v>
       </c>
       <c r="B77" s="1">
-        <v>1489.8330000000001</v>
+        <v>1494.1079999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D77" s="1">
         <v>-10</v>
@@ -1512,73 +1512,73 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>847.73599999999999</v>
+        <v>799.44</v>
       </c>
       <c r="B78" s="1">
-        <v>1393.2850000000001</v>
+        <v>1397.796</v>
       </c>
       <c r="C78" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D78" s="1">
-        <v>-8.02</v>
+        <v>-8</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>845.71299999999997</v>
+        <v>796.38699999999994</v>
       </c>
       <c r="B79" s="1">
-        <v>1296.7239999999999</v>
+        <v>1300.9059999999999</v>
       </c>
       <c r="C79" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.97</v>
+        <v>-6.03</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>844.37400000000002</v>
+        <v>793.49900000000002</v>
       </c>
       <c r="B80" s="1">
-        <v>1202.9000000000001</v>
+        <v>1203.962</v>
       </c>
       <c r="C80" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D80" s="1">
-        <v>-4.0199999999999996</v>
+        <v>-4</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>843.84799999999996</v>
+        <v>791.34900000000005</v>
       </c>
       <c r="B81" s="1">
-        <v>1107.491</v>
+        <v>1108.81</v>
       </c>
       <c r="C81" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.97</v>
+        <v>-2</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>843.98199999999997</v>
+        <v>789.79</v>
       </c>
       <c r="B82" s="1">
-        <v>1013.784</v>
+        <v>1013.1369999999999</v>
       </c>
       <c r="C82" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D82" s="1">
         <v>0</v>
@@ -1587,28 +1587,28 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>844.39300000000003</v>
+        <v>788.86</v>
       </c>
       <c r="B83" s="1">
-        <v>919.80899999999997</v>
+        <v>918.10799999999995</v>
       </c>
       <c r="C83" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>845.93200000000002</v>
+        <v>788.202</v>
       </c>
       <c r="B84" s="1">
-        <v>826.71699999999998</v>
+        <v>822.81899999999996</v>
       </c>
       <c r="C84" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -1617,103 +1617,103 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>847.93899999999996</v>
+        <v>788.26499999999999</v>
       </c>
       <c r="B85" s="1">
-        <v>731.75800000000004</v>
+        <v>726.98299999999995</v>
       </c>
       <c r="C85" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D85" s="1">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>850.51499999999999</v>
+        <v>789.024</v>
       </c>
       <c r="B86" s="1">
-        <v>637.23900000000003</v>
+        <v>629.58600000000001</v>
       </c>
       <c r="C86" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0299999999999994</v>
+        <v>8</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>853.66800000000001</v>
+        <v>790.23599999999999</v>
       </c>
       <c r="B87" s="1">
-        <v>542.06299999999999</v>
+        <v>532.13599999999997</v>
       </c>
       <c r="C87" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D87" s="1">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>857.57100000000003</v>
+        <v>792.00699999999995</v>
       </c>
       <c r="B88" s="1">
-        <v>445.702</v>
+        <v>431.77100000000002</v>
       </c>
       <c r="C88" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D88" s="1">
-        <v>12</v>
+        <v>11.95</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>862.23400000000004</v>
+        <v>794.13800000000003</v>
       </c>
       <c r="B89" s="1">
-        <v>348.14499999999998</v>
+        <v>330.13200000000001</v>
       </c>
       <c r="C89" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D89" s="1">
-        <v>14.03</v>
+        <v>13.97</v>
       </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>867.29100000000005</v>
+        <v>796.86699999999996</v>
       </c>
       <c r="B90" s="1">
-        <v>249.48699999999999</v>
+        <v>227.18899999999999</v>
       </c>
       <c r="C90" s="1">
-        <v>2899.7</v>
+        <v>2900.2</v>
       </c>
       <c r="D90" s="1">
-        <v>16</v>
+        <v>15.97</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>829.91800000000001</v>
+        <v>775.798</v>
       </c>
       <c r="B91" s="1">
-        <v>1013.244</v>
+        <v>1013.492</v>
       </c>
       <c r="C91" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -1722,58 +1722,58 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>847.43399999999997</v>
+        <v>803.25</v>
       </c>
       <c r="B92" s="1">
-        <v>1785.557</v>
+        <v>1790.9010000000001</v>
       </c>
       <c r="C92" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D92" s="1">
-        <v>-15.95</v>
+        <v>-15.9</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>843.279</v>
+        <v>798.49</v>
       </c>
       <c r="B93" s="1">
-        <v>1688.047</v>
+        <v>1695.2739999999999</v>
       </c>
       <c r="C93" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D93" s="1">
-        <v>-14.02</v>
+        <v>-14.05</v>
       </c>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>839.32899999999995</v>
+        <v>793.49</v>
       </c>
       <c r="B94" s="1">
-        <v>1588.15</v>
+        <v>1594.0170000000001</v>
       </c>
       <c r="C94" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D94" s="1">
-        <v>-12.02</v>
+        <v>-12</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>836.24400000000003</v>
+        <v>789.00699999999995</v>
       </c>
       <c r="B95" s="1">
-        <v>1489.617</v>
+        <v>1495.0619999999999</v>
       </c>
       <c r="C95" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D95" s="1">
         <v>-10</v>
@@ -1782,196 +1782,196 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>833.66200000000003</v>
+        <v>785.35799999999995</v>
       </c>
       <c r="B96" s="1">
-        <v>1392.9690000000001</v>
+        <v>1398.414</v>
       </c>
       <c r="C96" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D96" s="1">
-        <v>-8.02</v>
+        <v>-8.0299999999999994</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>831.82799999999997</v>
+        <v>782.25199999999995</v>
       </c>
       <c r="B97" s="1">
-        <v>1296.5709999999999</v>
+        <v>1300.8340000000001</v>
       </c>
       <c r="C97" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D97" s="1">
-        <v>-5.97</v>
+        <v>-6</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>830.32500000000005</v>
+        <v>779.404</v>
       </c>
       <c r="B98" s="1">
-        <v>1202.4190000000001</v>
+        <v>1205.038</v>
       </c>
       <c r="C98" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D98" s="1">
-        <v>-4</v>
+        <v>-3.97</v>
       </c>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>829.83199999999999</v>
+        <v>777.24099999999999</v>
       </c>
       <c r="B99" s="1">
-        <v>1108.3989999999999</v>
+        <v>1111.104</v>
       </c>
       <c r="C99" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D99" s="1">
-        <v>-1.97</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>829.97799999999995</v>
+        <v>775.798</v>
       </c>
       <c r="B100" s="1">
-        <v>1014.62</v>
+        <v>1014.343</v>
       </c>
       <c r="C100" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D100" s="1">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>830.53300000000002</v>
+        <v>774.702</v>
       </c>
       <c r="B101" s="1">
-        <v>920.19200000000001</v>
+        <v>919.53499999999997</v>
       </c>
       <c r="C101" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D101" s="1">
-        <v>2.0299999999999998</v>
+        <v>2</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>831.89400000000001</v>
+        <v>774.02099999999996</v>
       </c>
       <c r="B102" s="1">
-        <v>826.154</v>
+        <v>824.57299999999998</v>
       </c>
       <c r="C102" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D102" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>833.81600000000003</v>
+        <v>774.28</v>
       </c>
       <c r="B103" s="1">
-        <v>733.43899999999996</v>
+        <v>728.51700000000005</v>
       </c>
       <c r="C103" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D103" s="1">
-        <v>6.03</v>
+        <v>5.98</v>
       </c>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>836.24199999999996</v>
+        <v>774.99699999999996</v>
       </c>
       <c r="B104" s="1">
-        <v>638.76700000000005</v>
+        <v>631.44399999999996</v>
       </c>
       <c r="C104" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D104" s="1">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>839.46100000000001</v>
+        <v>775.97400000000005</v>
       </c>
       <c r="B105" s="1">
-        <v>542.54899999999998</v>
+        <v>532.72199999999998</v>
       </c>
       <c r="C105" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D105" s="1">
-        <v>10.029999999999999</v>
+        <v>9.98</v>
       </c>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>843.43399999999997</v>
+        <v>777.60699999999997</v>
       </c>
       <c r="B106" s="1">
-        <v>446.49700000000001</v>
+        <v>433.53199999999998</v>
       </c>
       <c r="C106" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D106" s="1">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>847.697</v>
+        <v>779.57100000000003</v>
       </c>
       <c r="B107" s="1">
-        <v>348.61500000000001</v>
+        <v>332.94099999999997</v>
       </c>
       <c r="C107" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D107" s="1">
-        <v>14.03</v>
+        <v>13.98</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>852.85799999999995</v>
+        <v>782.173</v>
       </c>
       <c r="B108" s="1">
-        <v>249.83099999999999</v>
+        <v>230.084</v>
       </c>
       <c r="C108" s="1">
-        <v>2999.3</v>
+        <v>2999.8</v>
       </c>
       <c r="D108" s="1">
-        <v>16.03</v>
+        <v>15.98</v>
       </c>
       <c r="E108" s="1"/>
     </row>
